--- a/src/test/resources/reports/xlsx_report_service_test/nba_stars_old.xlsx
+++ b/src/test/resources/reports/xlsx_report_service_test/nba_stars_old.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>teams</t>
   </si>
   <si>
+    <t>playing_now</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>[{"team_name":"Cleveland Cavaliers","years_played":["2003-2010","2014-2018"]},{"team_name":"Miami Heat","years_played":["2010-2014"]},{"team_name":"Los Angeles Lakers","years_played":["2018-2021"]}]</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Kevin Durant</t>
@@ -142,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,6 +161,7 @@
     <col min="5" max="5" width="20.015625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="17.2421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="250.09765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -179,16 +186,19 @@
       <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n" s="2">
         <v>25.0</v>
@@ -200,18 +210,21 @@
         <v>7.8</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n" s="2">
         <v>26.0</v>
@@ -223,18 +236,21 @@
         <v>5.9</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n" s="2">
         <v>29.5</v>
@@ -246,18 +262,21 @@
         <v>6.4</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n" s="2">
         <v>28.1</v>
@@ -269,18 +288,21 @@
         <v>5.9</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n" s="2">
         <v>25.0</v>
@@ -292,7 +314,10 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
